--- a/results/Accuracy comparison.xlsx
+++ b/results/Accuracy comparison.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\otomr\OneDrive\Documents\GitHub\ANS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\otomr\OneDrive\Documents\GitHub\ANS\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F73FEFF3-0D4A-4AC9-BA9E-3D12A6FBEE0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC26A976-8FC9-4838-9194-D1A2B62353FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{03A6EF74-D702-4C2C-8C08-54AEE5288E88}"/>
+    <workbookView xWindow="2616" yWindow="1608" windowWidth="19092" windowHeight="10236" xr2:uid="{03A6EF74-D702-4C2C-8C08-54AEE5288E88}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -245,7 +245,7 @@
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>0.86</c:v>
+                  <c:v>0.87</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.88</c:v>
@@ -263,7 +263,7 @@
                   <c:v>0.7</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.95</c:v>
+                  <c:v>0.85</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1435,8 +1435,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCCD23C7-0974-4641-9C0B-0EB799F60FBE}">
   <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1454,7 +1454,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1">
-        <v>0.86</v>
+        <v>0.87</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -1502,7 +1502,7 @@
         <v>8</v>
       </c>
       <c r="B8" s="1">
-        <v>0.95</v>
+        <v>0.85</v>
       </c>
     </row>
   </sheetData>
